--- a/foxholeArtillery/artilleryData.xlsx
+++ b/foxholeArtillery/artilleryData.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,60 +459,50 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
           <t>spotterToTargetAzimuth</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>spotterToTargetDistance</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>spotterToGunAzimuth</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>spotterToGunDistance</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>windAzimuth</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>windForce</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>unadjustedGunToTargetAzimuth</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>unadjustedGunToTargetDistance</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>gunToImpactAzimuth</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>gunToImpactDistance</t>
         </is>
@@ -523,39 +513,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J2" t="n">
-        <v>269.0742213232065</v>
+        <v>274.6022285301386</v>
       </c>
       <c r="K2" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274.6022285301386</v>
-      </c>
-      <c r="M2" t="n">
         <v>39.78776905146032</v>
       </c>
     </row>
@@ -564,39 +548,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E3" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J3" t="n">
-        <v>269.0742213232065</v>
+        <v>273.8204092215172</v>
       </c>
       <c r="K3" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L3" t="n">
-        <v>273.8204092215172</v>
-      </c>
-      <c r="M3" t="n">
         <v>28.11501820986323</v>
       </c>
     </row>
@@ -605,39 +583,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J4" t="n">
-        <v>269.0742213232065</v>
+        <v>275.9371597442357</v>
       </c>
       <c r="K4" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L4" t="n">
-        <v>275.9371597442357</v>
-      </c>
-      <c r="M4" t="n">
         <v>15.00803501986523</v>
       </c>
     </row>
@@ -646,39 +618,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J5" t="n">
-        <v>269.0742213232065</v>
+        <v>296.4753038689077</v>
       </c>
       <c r="K5" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L5" t="n">
-        <v>296.4753038689077</v>
-      </c>
-      <c r="M5" t="n">
         <v>57.32392081870466</v>
       </c>
     </row>
@@ -687,39 +653,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J6" t="n">
-        <v>269.0742213232065</v>
+        <v>367.6151699432636</v>
       </c>
       <c r="K6" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L6" t="n">
-        <v>367.6151699432636</v>
-      </c>
-      <c r="M6" t="n">
         <v>35.98450272614713</v>
       </c>
     </row>
@@ -728,39 +688,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J7" t="n">
-        <v>269.0742213232065</v>
+        <v>212.4861146075281</v>
       </c>
       <c r="K7" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L7" t="n">
-        <v>212.4861146075281</v>
-      </c>
-      <c r="M7" t="n">
         <v>35.69718346211449</v>
       </c>
     </row>
@@ -769,39 +723,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J8" t="n">
-        <v>269.0742213232065</v>
+        <v>282.2988551916096</v>
       </c>
       <c r="K8" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L8" t="n">
-        <v>282.2988551916096</v>
-      </c>
-      <c r="M8" t="n">
         <v>405.29650291278</v>
       </c>
     </row>
@@ -810,39 +758,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E9" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J9" t="n">
-        <v>269.0742213232065</v>
+        <v>207.0919972272575</v>
       </c>
       <c r="K9" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L9" t="n">
-        <v>207.0919972272575</v>
-      </c>
-      <c r="M9" t="n">
         <v>485.8308351112842</v>
       </c>
     </row>
@@ -851,39 +793,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J10" t="n">
-        <v>269.0742213232065</v>
+        <v>353.4432325416525</v>
       </c>
       <c r="K10" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L10" t="n">
-        <v>353.4432325416525</v>
-      </c>
-      <c r="M10" t="n">
         <v>17.99080638373982</v>
       </c>
     </row>
@@ -892,39 +828,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J11" t="n">
-        <v>269.0742213232065</v>
+        <v>280.0931004290958</v>
       </c>
       <c r="K11" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L11" t="n">
-        <v>280.0931004290958</v>
-      </c>
-      <c r="M11" t="n">
         <v>10004.98352720312</v>
       </c>
     </row>
@@ -933,39 +863,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D12" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E12" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J12" t="n">
-        <v>269.0742213232065</v>
+        <v>202.3907816688014</v>
       </c>
       <c r="K12" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L12" t="n">
-        <v>202.3907816688014</v>
-      </c>
-      <c r="M12" t="n">
         <v>185.0139336253329</v>
       </c>
     </row>
@@ -974,39 +898,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J13" t="n">
-        <v>269.0742213232065</v>
+        <v>507.1695608278212</v>
       </c>
       <c r="K13" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L13" t="n">
-        <v>507.1695608278212</v>
-      </c>
-      <c r="M13" t="n">
         <v>134.5155204702883</v>
       </c>
     </row>
@@ -1015,39 +933,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J14" t="n">
-        <v>269.0742213232065</v>
+        <v>450.2921151990538</v>
       </c>
       <c r="K14" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L14" t="n">
-        <v>450.2921151990538</v>
-      </c>
-      <c r="M14" t="n">
         <v>96.41024947557544</v>
       </c>
     </row>
@@ -1056,37 +968,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65</v>
+      </c>
       <c r="D15" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J15" t="n">
-        <v>269.0742213232065</v>
+        <v>408.3963450401621</v>
       </c>
       <c r="K15" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L15" t="n">
-        <v>408.3963450401621</v>
-      </c>
-      <c r="M15" t="n">
         <v>509.45840222265</v>
       </c>
     </row>
@@ -1095,37 +1003,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>254</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65</v>
+      </c>
       <c r="D16" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J16" t="n">
-        <v>269.0742213232065</v>
+        <v>220.5228338677839</v>
       </c>
       <c r="K16" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L16" t="n">
-        <v>220.5228338677839</v>
-      </c>
-      <c r="M16" t="n">
         <v>36.92235142150049</v>
       </c>
     </row>
@@ -1133,36 +1037,34 @@
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>254</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65</v>
+      </c>
       <c r="D17" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J17" t="n">
-        <v>269.0742213232065</v>
+        <v>220.5228338677839</v>
       </c>
       <c r="K17" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L17" t="n">
-        <v>220.5228338677839</v>
-      </c>
-      <c r="M17" t="n">
         <v>36.92235142150049</v>
       </c>
     </row>
@@ -1170,36 +1072,34 @@
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>254</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65</v>
+      </c>
       <c r="D18" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J18" t="n">
-        <v>269.0742213232065</v>
+        <v>257.8387854629182</v>
       </c>
       <c r="K18" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L18" t="n">
-        <v>257.8387854629182</v>
-      </c>
-      <c r="M18" t="n">
         <v>9.116773746886004</v>
       </c>
     </row>
@@ -1207,37 +1107,140 @@
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>254</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65</v>
+      </c>
       <c r="D19" t="n">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="E19" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>124</v>
+        <v>269.0742213232065</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>64.56221675454685</v>
       </c>
       <c r="J19" t="n">
-        <v>269.0742213232065</v>
+        <v>256.3452333872051</v>
       </c>
       <c r="K19" t="n">
-        <v>64.56221675454685</v>
-      </c>
-      <c r="L19" t="n">
-        <v>256.3452333872051</v>
-      </c>
-      <c r="M19" t="n">
         <v>55.60493231613434</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>254</v>
+      </c>
+      <c r="C20" t="n">
+        <v>65</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>124</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>269.0742213232065</v>
+      </c>
+      <c r="I20" t="n">
+        <v>64.56221675454685</v>
+      </c>
+      <c r="J20" t="n">
+        <v>396.4720245626243</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60.94986759235451</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>254</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65</v>
+      </c>
+      <c r="D21" t="n">
+        <v>173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>17</v>
+      </c>
+      <c r="F21" t="n">
+        <v>124</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>269.0742213232065</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64.56221675454685</v>
+      </c>
+      <c r="J21" t="n">
+        <v>396.4720245626243</v>
+      </c>
+      <c r="K21" t="n">
+        <v>60.94986759235451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>254</v>
+      </c>
+      <c r="C22" t="n">
+        <v>65</v>
+      </c>
+      <c r="D22" t="n">
+        <v>173</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>124</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>269.0742213232065</v>
+      </c>
+      <c r="I22" t="n">
+        <v>64.56221675454685</v>
+      </c>
+      <c r="J22" t="n">
+        <v>396.4720245626243</v>
+      </c>
+      <c r="K22" t="n">
+        <v>60.94986759235451</v>
       </c>
     </row>
   </sheetData>

--- a/foxholeArtillery/artilleryData.xlsx
+++ b/foxholeArtillery/artilleryData.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,76 @@
         <v>60.94986759235451</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254</v>
+      </c>
+      <c r="C23" t="n">
+        <v>65</v>
+      </c>
+      <c r="D23" t="n">
+        <v>173</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>124</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>269.0742213232065</v>
+      </c>
+      <c r="I23" t="n">
+        <v>64.56221675454685</v>
+      </c>
+      <c r="J23" t="n">
+        <v>396.4720245626243</v>
+      </c>
+      <c r="K23" t="n">
+        <v>60.94986759235451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>254</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65</v>
+      </c>
+      <c r="D24" t="n">
+        <v>173</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>124</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>269.0742213232065</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64.56221675454685</v>
+      </c>
+      <c r="J24" t="n">
+        <v>320.0010609572844</v>
+      </c>
+      <c r="K24" t="n">
+        <v>500014.2574853792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/foxholeArtillery/artilleryData.xlsx
+++ b/foxholeArtillery/artilleryData.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,41 @@
         <v>500014.2574853792</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>254</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>173</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17</v>
+      </c>
+      <c r="F25" t="n">
+        <v>124</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>254.0320707178557</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29997.34531330496</v>
+      </c>
+      <c r="J25" t="n">
+        <v>361.9553082752512</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.55046512736023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/foxholeArtillery/artilleryData.xlsx
+++ b/foxholeArtillery/artilleryData.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1348,6 +1348,76 @@
         <v>12.55046512736023</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>254</v>
+      </c>
+      <c r="C26" t="n">
+        <v>250</v>
+      </c>
+      <c r="D26" t="n">
+        <v>173</v>
+      </c>
+      <c r="E26" t="n">
+        <v>17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>257.8835620230616</v>
+      </c>
+      <c r="I26" t="n">
+        <v>247.9098768648761</v>
+      </c>
+      <c r="J26" t="n">
+        <v>512.0020572100497</v>
+      </c>
+      <c r="K26" t="n">
+        <v>33.75644035337266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>254</v>
+      </c>
+      <c r="C27" t="n">
+        <v>250</v>
+      </c>
+      <c r="D27" t="n">
+        <v>173</v>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="n">
+        <v>124</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>265.5255986927673</v>
+      </c>
+      <c r="I27" t="n">
+        <v>247.1621701919495</v>
+      </c>
+      <c r="J27" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19.93679344171972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/foxholeArtillery/artilleryData.xlsx
+++ b/foxholeArtillery/artilleryData.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,6 +1418,181 @@
         <v>19.93679344171972</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>254</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>173</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>124</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>324.8198656957328</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.182947353165744</v>
+      </c>
+      <c r="J28" t="n">
+        <v>409.6172551090812</v>
+      </c>
+      <c r="K28" t="n">
+        <v>502.1897610864444</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>254</v>
+      </c>
+      <c r="C29" t="n">
+        <v>250</v>
+      </c>
+      <c r="D29" t="n">
+        <v>173</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>124</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>265.5255986927673</v>
+      </c>
+      <c r="I29" t="n">
+        <v>247.1621701919495</v>
+      </c>
+      <c r="J29" t="n">
+        <v>405.4525382353581</v>
+      </c>
+      <c r="K29" t="n">
+        <v>528.89691977809</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>250</v>
+      </c>
+      <c r="D30" t="n">
+        <v>173</v>
+      </c>
+      <c r="E30" t="n">
+        <v>50</v>
+      </c>
+      <c r="F30" t="n">
+        <v>124</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>265.5255986927673</v>
+      </c>
+      <c r="I30" t="n">
+        <v>247.1621701919495</v>
+      </c>
+      <c r="J30" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>87.88171126619655</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>250</v>
+      </c>
+      <c r="D31" t="n">
+        <v>173</v>
+      </c>
+      <c r="E31" t="n">
+        <v>50</v>
+      </c>
+      <c r="F31" t="n">
+        <v>124</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>265.5255986927673</v>
+      </c>
+      <c r="I31" t="n">
+        <v>247.1621701919495</v>
+      </c>
+      <c r="J31" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>87.88171126619655</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>254</v>
+      </c>
+      <c r="C32" t="n">
+        <v>500</v>
+      </c>
+      <c r="D32" t="n">
+        <v>173</v>
+      </c>
+      <c r="E32" t="n">
+        <v>50</v>
+      </c>
+      <c r="F32" t="n">
+        <v>124</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>259.7297935913153</v>
+      </c>
+      <c r="I32" t="n">
+        <v>494.6496505083052</v>
+      </c>
+      <c r="J32" t="n">
+        <v>381.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>87.88171126619655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
